--- a/biology/Zoologie/Épagneul_nain_continental/Épagneul_nain_continental.xlsx
+++ b/biology/Zoologie/Épagneul_nain_continental/Épagneul_nain_continental.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_nain_continental</t>
+          <t>Épagneul_nain_continental</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épagneul nain continental est une race de chien de compagnie originaire de France et de Belgique, comprenant notamment les variétés papillon, aux oreilles droites, et phalène, aux oreilles tombantes. Les noms papillon et phalène font respectivement référence au papillon diurne, qui tient ses ailes droites lorsqu'il se repose, et à un papillon nocturne, la phalène, qui les garde plutôt baissées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_nain_continental</t>
+          <t>Épagneul_nain_continental</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques physiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Développé plus en longueur qu'en hauteur, l'épagneul continental a une tête proportionnée au corps (proportionnellement plus petite que celle des autres races d'épagneuls), un stop prononcé, un museau court et pointu, un chanfrein droit et une truffe noire légèrement aplatie sur le dessus.
 La robe est longue, soyeuse, brillante, ondulée (pas bouclée) ; toutes les couleurs sont admises sur fond blanc (sur le corps et les membres, le blanc doit être dominant), sauf la couleur foie.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_nain_continental</t>
+          <t>Épagneul_nain_continental</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Tempérament</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un chien intelligent, vif et amical. Il peut parfois se montrer possessif envers son maître et ne tolère pas la présence d'étrangers.
 Bien qu'il soit adapté à la vie en appartement, il aime l'exercice en plein air.
